--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Mfng-Notch2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Mfng-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Mfng</t>
   </si>
   <si>
     <t>Notch2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.7330636302447</v>
+        <v>20.089847</v>
       </c>
       <c r="H2">
-        <v>19.7330636302447</v>
+        <v>60.269541</v>
       </c>
       <c r="I2">
-        <v>0.9083434735718637</v>
+        <v>0.8908882414095813</v>
       </c>
       <c r="J2">
-        <v>0.9083434735718637</v>
+        <v>0.8908882414095813</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.98547382335556</v>
+        <v>2.119550333333333</v>
       </c>
       <c r="N2">
-        <v>1.98547382335556</v>
+        <v>6.358651</v>
       </c>
       <c r="O2">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="P2">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="Q2">
-        <v>39.17948129246049</v>
+        <v>42.58144190546566</v>
       </c>
       <c r="R2">
-        <v>39.17948129246049</v>
+        <v>383.232977149191</v>
       </c>
       <c r="S2">
-        <v>0.01542085658929786</v>
+        <v>0.01566855310652362</v>
       </c>
       <c r="T2">
-        <v>0.01542085658929786</v>
+        <v>0.01566855310652362</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.7330636302447</v>
+        <v>20.089847</v>
       </c>
       <c r="H3">
-        <v>19.7330636302447</v>
+        <v>60.269541</v>
       </c>
       <c r="I3">
-        <v>0.9083434735718637</v>
+        <v>0.8908882414095813</v>
       </c>
       <c r="J3">
-        <v>0.9083434735718637</v>
+        <v>0.8908882414095813</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.7571201655845</v>
+        <v>22.818859</v>
       </c>
       <c r="N3">
-        <v>22.7571201655845</v>
+        <v>68.456577</v>
       </c>
       <c r="O3">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="P3">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="Q3">
-        <v>449.0677002686037</v>
+        <v>458.427386024573</v>
       </c>
       <c r="R3">
-        <v>449.0677002686037</v>
+        <v>4125.846474221156</v>
       </c>
       <c r="S3">
-        <v>0.1767509006317689</v>
+        <v>0.1686860172409719</v>
       </c>
       <c r="T3">
-        <v>0.1767509006317689</v>
+        <v>0.1686860172409719</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.7330636302447</v>
+        <v>20.089847</v>
       </c>
       <c r="H4">
-        <v>19.7330636302447</v>
+        <v>60.269541</v>
       </c>
       <c r="I4">
-        <v>0.9083434735718637</v>
+        <v>0.8908882414095813</v>
       </c>
       <c r="J4">
-        <v>0.9083434735718637</v>
+        <v>0.8908882414095813</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.5000523956459</v>
+        <v>33.691532</v>
       </c>
       <c r="N4">
-        <v>33.5000523956459</v>
+        <v>101.074596</v>
       </c>
       <c r="O4">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="P4">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="Q4">
-        <v>661.058665539812</v>
+        <v>676.857723075604</v>
       </c>
       <c r="R4">
-        <v>661.058665539812</v>
+        <v>6091.719507680436</v>
       </c>
       <c r="S4">
-        <v>0.2601895314107632</v>
+        <v>0.2490611098401878</v>
       </c>
       <c r="T4">
-        <v>0.2601895314107632</v>
+        <v>0.2490611098401878</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.7330636302447</v>
+        <v>20.089847</v>
       </c>
       <c r="H5">
-        <v>19.7330636302447</v>
+        <v>60.269541</v>
       </c>
       <c r="I5">
-        <v>0.9083434735718637</v>
+        <v>0.8908882414095813</v>
       </c>
       <c r="J5">
-        <v>0.9083434735718637</v>
+        <v>0.8908882414095813</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>47.9603138341104</v>
+        <v>49.94141999999999</v>
       </c>
       <c r="N5">
-        <v>47.9603138341104</v>
+        <v>149.82426</v>
       </c>
       <c r="O5">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="P5">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="Q5">
-        <v>946.4039246150057</v>
+        <v>1003.31548676274</v>
       </c>
       <c r="R5">
-        <v>946.4039246150057</v>
+        <v>9029.839380864658</v>
       </c>
       <c r="S5">
-        <v>0.372500061654597</v>
+        <v>0.3691866992630359</v>
       </c>
       <c r="T5">
-        <v>0.372500061654597</v>
+        <v>0.3691866992630359</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.7330636302447</v>
+        <v>20.089847</v>
       </c>
       <c r="H6">
-        <v>19.7330636302447</v>
+        <v>60.269541</v>
       </c>
       <c r="I6">
-        <v>0.9083434735718637</v>
+        <v>0.8908882414095813</v>
       </c>
       <c r="J6">
-        <v>0.9083434735718637</v>
+        <v>0.8908882414095813</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.7485319989558</v>
+        <v>11.94279566666667</v>
       </c>
       <c r="N6">
-        <v>10.7485319989558</v>
+        <v>35.828387</v>
       </c>
       <c r="O6">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="P6">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="Q6">
-        <v>212.101465867116</v>
+        <v>239.9289376955963</v>
       </c>
       <c r="R6">
-        <v>212.101465867116</v>
+        <v>2159.360439260367</v>
       </c>
       <c r="S6">
-        <v>0.0834821232854368</v>
+        <v>0.08828586195886211</v>
       </c>
       <c r="T6">
-        <v>0.0834821232854368</v>
+        <v>0.08828586195886211</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -847,49 +847,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.471581553584597</v>
+        <v>0.174997</v>
       </c>
       <c r="H7">
-        <v>0.471581553584597</v>
+        <v>0.524991</v>
       </c>
       <c r="I7">
-        <v>0.02170762910828038</v>
+        <v>0.007760276600511319</v>
       </c>
       <c r="J7">
-        <v>0.02170762910828038</v>
+        <v>0.007760276600511319</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.98547382335556</v>
+        <v>2.119550333333333</v>
       </c>
       <c r="N7">
-        <v>1.98547382335556</v>
+        <v>6.358651</v>
       </c>
       <c r="O7">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="P7">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="Q7">
-        <v>0.9363128302195648</v>
+        <v>0.3709149496823333</v>
       </c>
       <c r="R7">
-        <v>0.9363128302195648</v>
+        <v>3.338234547141</v>
       </c>
       <c r="S7">
-        <v>0.0003685282551281255</v>
+        <v>0.0001364843539118199</v>
       </c>
       <c r="T7">
-        <v>0.0003685282551281255</v>
+        <v>0.0001364843539118199</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.471581553584597</v>
+        <v>0.174997</v>
       </c>
       <c r="H8">
-        <v>0.471581553584597</v>
+        <v>0.524991</v>
       </c>
       <c r="I8">
-        <v>0.02170762910828038</v>
+        <v>0.007760276600511319</v>
       </c>
       <c r="J8">
-        <v>0.02170762910828038</v>
+        <v>0.007760276600511319</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.7571201655845</v>
+        <v>22.818859</v>
       </c>
       <c r="N8">
-        <v>22.7571201655845</v>
+        <v>68.456577</v>
       </c>
       <c r="O8">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="P8">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="Q8">
-        <v>10.7318380827977</v>
+        <v>3.993231868422999</v>
       </c>
       <c r="R8">
-        <v>10.7318380827977</v>
+        <v>35.93908681580699</v>
       </c>
       <c r="S8">
-        <v>0.004224000179559179</v>
+        <v>0.001469376394908252</v>
       </c>
       <c r="T8">
-        <v>0.004224000179559179</v>
+        <v>0.001469376394908252</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.471581553584597</v>
+        <v>0.174997</v>
       </c>
       <c r="H9">
-        <v>0.471581553584597</v>
+        <v>0.524991</v>
       </c>
       <c r="I9">
-        <v>0.02170762910828038</v>
+        <v>0.007760276600511319</v>
       </c>
       <c r="J9">
-        <v>0.02170762910828038</v>
+        <v>0.007760276600511319</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.5000523956459</v>
+        <v>33.691532</v>
       </c>
       <c r="N9">
-        <v>33.5000523956459</v>
+        <v>101.074596</v>
       </c>
       <c r="O9">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="P9">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="Q9">
-        <v>15.7980067539041</v>
+        <v>5.895917025404</v>
       </c>
       <c r="R9">
-        <v>15.7980067539041</v>
+        <v>53.063253228636</v>
       </c>
       <c r="S9">
-        <v>0.006218019956165036</v>
+        <v>0.002169501193249672</v>
       </c>
       <c r="T9">
-        <v>0.006218019956165036</v>
+        <v>0.002169501193249672</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.471581553584597</v>
+        <v>0.174997</v>
       </c>
       <c r="H10">
-        <v>0.471581553584597</v>
+        <v>0.524991</v>
       </c>
       <c r="I10">
-        <v>0.02170762910828038</v>
+        <v>0.007760276600511319</v>
       </c>
       <c r="J10">
-        <v>0.02170762910828038</v>
+        <v>0.007760276600511319</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.9603138341104</v>
+        <v>49.94141999999999</v>
       </c>
       <c r="N10">
-        <v>47.9603138341104</v>
+        <v>149.82426</v>
       </c>
       <c r="O10">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="P10">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="Q10">
-        <v>22.61719930829462</v>
+        <v>8.739598675739998</v>
       </c>
       <c r="R10">
-        <v>22.61719930829462</v>
+        <v>78.65638808165998</v>
       </c>
       <c r="S10">
-        <v>0.008902021555142307</v>
+        <v>0.003215881375847884</v>
       </c>
       <c r="T10">
-        <v>0.008902021555142307</v>
+        <v>0.003215881375847884</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.471581553584597</v>
+        <v>0.174997</v>
       </c>
       <c r="H11">
-        <v>0.471581553584597</v>
+        <v>0.524991</v>
       </c>
       <c r="I11">
-        <v>0.02170762910828038</v>
+        <v>0.007760276600511319</v>
       </c>
       <c r="J11">
-        <v>0.02170762910828038</v>
+        <v>0.007760276600511319</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.7485319989558</v>
+        <v>11.94279566666667</v>
       </c>
       <c r="N11">
-        <v>10.7485319989558</v>
+        <v>35.828387</v>
       </c>
       <c r="O11">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="P11">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="Q11">
-        <v>5.06880941882133</v>
+        <v>2.089953413279666</v>
       </c>
       <c r="R11">
-        <v>5.06880941882133</v>
+        <v>18.809580719517</v>
       </c>
       <c r="S11">
-        <v>0.001995059162285737</v>
+        <v>0.0007690332825936899</v>
       </c>
       <c r="T11">
-        <v>0.001995059162285737</v>
+        <v>0.0007690332825936899</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.51958601766622</v>
+        <v>0.4735023333333333</v>
       </c>
       <c r="H12">
-        <v>1.51958601766622</v>
+        <v>1.420507</v>
       </c>
       <c r="I12">
-        <v>0.06994889731985592</v>
+        <v>0.0209975546875328</v>
       </c>
       <c r="J12">
-        <v>0.06994889731985592</v>
+        <v>0.0209975546875328</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.98547382335556</v>
+        <v>2.119550333333333</v>
       </c>
       <c r="N12">
-        <v>1.98547382335556</v>
+        <v>6.358651</v>
       </c>
       <c r="O12">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="P12">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="Q12">
-        <v>3.017098260413399</v>
+        <v>1.003612028450778</v>
       </c>
       <c r="R12">
-        <v>3.017098260413399</v>
+        <v>9.032508256057</v>
       </c>
       <c r="S12">
-        <v>0.001187515455918207</v>
+        <v>0.0003692958167325108</v>
       </c>
       <c r="T12">
-        <v>0.001187515455918207</v>
+        <v>0.0003692958167325109</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.51958601766622</v>
+        <v>0.4735023333333333</v>
       </c>
       <c r="H13">
-        <v>1.51958601766622</v>
+        <v>1.420507</v>
       </c>
       <c r="I13">
-        <v>0.06994889731985592</v>
+        <v>0.0209975546875328</v>
       </c>
       <c r="J13">
-        <v>0.06994889731985592</v>
+        <v>0.0209975546875328</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.7571201655845</v>
+        <v>22.818859</v>
       </c>
       <c r="N13">
-        <v>22.7571201655845</v>
+        <v>68.456577</v>
       </c>
       <c r="O13">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="P13">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="Q13">
-        <v>34.58140160597218</v>
+        <v>10.80478298050433</v>
       </c>
       <c r="R13">
-        <v>34.58140160597218</v>
+        <v>97.24304682453899</v>
       </c>
       <c r="S13">
-        <v>0.01361107439993679</v>
+        <v>0.003975800451059041</v>
       </c>
       <c r="T13">
-        <v>0.01361107439993679</v>
+        <v>0.003975800451059041</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.51958601766622</v>
+        <v>0.4735023333333333</v>
       </c>
       <c r="H14">
-        <v>1.51958601766622</v>
+        <v>1.420507</v>
       </c>
       <c r="I14">
-        <v>0.06994889731985592</v>
+        <v>0.0209975546875328</v>
       </c>
       <c r="J14">
-        <v>0.06994889731985592</v>
+        <v>0.0209975546875328</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>33.5000523956459</v>
+        <v>33.691532</v>
       </c>
       <c r="N14">
-        <v>33.5000523956459</v>
+        <v>101.074596</v>
       </c>
       <c r="O14">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="P14">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="Q14">
-        <v>50.90621121150927</v>
+        <v>15.95301901557467</v>
       </c>
       <c r="R14">
-        <v>50.90621121150927</v>
+        <v>143.577171140172</v>
       </c>
       <c r="S14">
-        <v>0.02003644144079713</v>
+        <v>0.005870179929788343</v>
       </c>
       <c r="T14">
-        <v>0.02003644144079713</v>
+        <v>0.005870179929788343</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.51958601766622</v>
+        <v>0.4735023333333333</v>
       </c>
       <c r="H15">
-        <v>1.51958601766622</v>
+        <v>1.420507</v>
       </c>
       <c r="I15">
-        <v>0.06994889731985592</v>
+        <v>0.0209975546875328</v>
       </c>
       <c r="J15">
-        <v>0.06994889731985592</v>
+        <v>0.0209975546875328</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>47.9603138341104</v>
+        <v>49.94141999999999</v>
       </c>
       <c r="N15">
-        <v>47.9603138341104</v>
+        <v>149.82426</v>
       </c>
       <c r="O15">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="P15">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="Q15">
-        <v>72.87982230519793</v>
+        <v>23.64737889997999</v>
       </c>
       <c r="R15">
-        <v>72.87982230519793</v>
+        <v>212.82641009982</v>
       </c>
       <c r="S15">
-        <v>0.02868514975052109</v>
+        <v>0.008701448225896351</v>
       </c>
       <c r="T15">
-        <v>0.02868514975052109</v>
+        <v>0.008701448225896351</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4735023333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.420507</v>
+      </c>
+      <c r="I16">
+        <v>0.0209975546875328</v>
+      </c>
+      <c r="J16">
+        <v>0.0209975546875328</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>11.94279566666667</v>
+      </c>
+      <c r="N16">
+        <v>35.828387</v>
+      </c>
+      <c r="O16">
+        <v>0.09909869482526162</v>
+      </c>
+      <c r="P16">
+        <v>0.09909869482526162</v>
+      </c>
+      <c r="Q16">
+        <v>5.654941614689888</v>
+      </c>
+      <c r="R16">
+        <v>50.894474532209</v>
+      </c>
+      <c r="S16">
+        <v>0.002080830264056554</v>
+      </c>
+      <c r="T16">
+        <v>0.002080830264056554</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.806672333333333</v>
+      </c>
+      <c r="H17">
+        <v>5.420017</v>
+      </c>
+      <c r="I17">
+        <v>0.08011724219933972</v>
+      </c>
+      <c r="J17">
+        <v>0.0801172421993397</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.119550333333333</v>
+      </c>
+      <c r="N17">
+        <v>6.358651</v>
+      </c>
+      <c r="O17">
+        <v>0.01758756303903228</v>
+      </c>
+      <c r="P17">
+        <v>0.01758756303903228</v>
+      </c>
+      <c r="Q17">
+        <v>3.829332946340777</v>
+      </c>
+      <c r="R17">
+        <v>34.463996517067</v>
+      </c>
+      <c r="S17">
+        <v>0.001409067047694304</v>
+      </c>
+      <c r="T17">
+        <v>0.001409067047694304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.806672333333333</v>
+      </c>
+      <c r="H18">
+        <v>5.420017</v>
+      </c>
+      <c r="I18">
+        <v>0.08011724219933972</v>
+      </c>
+      <c r="J18">
+        <v>0.0801172421993397</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>22.818859</v>
+      </c>
+      <c r="N18">
+        <v>68.456577</v>
+      </c>
+      <c r="O18">
+        <v>0.1893458790903711</v>
+      </c>
+      <c r="P18">
+        <v>0.1893458790903711</v>
+      </c>
+      <c r="Q18">
+        <v>41.22620123353433</v>
+      </c>
+      <c r="R18">
+        <v>371.035811101809</v>
+      </c>
+      <c r="S18">
+        <v>0.01516986965453015</v>
+      </c>
+      <c r="T18">
+        <v>0.01516986965453015</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.806672333333333</v>
+      </c>
+      <c r="H19">
+        <v>5.420017</v>
+      </c>
+      <c r="I19">
+        <v>0.08011724219933972</v>
+      </c>
+      <c r="J19">
+        <v>0.0801172421993397</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>33.691532</v>
+      </c>
+      <c r="N19">
+        <v>101.074596</v>
+      </c>
+      <c r="O19">
+        <v>0.2795649311142757</v>
+      </c>
+      <c r="P19">
+        <v>0.2795649311142757</v>
+      </c>
+      <c r="Q19">
+        <v>60.86955873201467</v>
+      </c>
+      <c r="R19">
+        <v>547.826028588132</v>
+      </c>
+      <c r="S19">
+        <v>0.02239797129652415</v>
+      </c>
+      <c r="T19">
+        <v>0.02239797129652414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.806672333333333</v>
+      </c>
+      <c r="H20">
+        <v>5.420017</v>
+      </c>
+      <c r="I20">
+        <v>0.08011724219933972</v>
+      </c>
+      <c r="J20">
+        <v>0.0801172421993397</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>49.94141999999999</v>
+      </c>
+      <c r="N20">
+        <v>149.82426</v>
+      </c>
+      <c r="O20">
+        <v>0.4144029319310593</v>
+      </c>
+      <c r="P20">
+        <v>0.4144029319310593</v>
+      </c>
+      <c r="Q20">
+        <v>90.22778180137998</v>
+      </c>
+      <c r="R20">
+        <v>812.0500362124199</v>
+      </c>
+      <c r="S20">
+        <v>0.03320082006563717</v>
+      </c>
+      <c r="T20">
+        <v>0.03320082006563716</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.51958601766622</v>
-      </c>
-      <c r="H16">
-        <v>1.51958601766622</v>
-      </c>
-      <c r="I16">
-        <v>0.06994889731985592</v>
-      </c>
-      <c r="J16">
-        <v>0.06994889731985592</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>10.7485319989558</v>
-      </c>
-      <c r="N16">
-        <v>10.7485319989558</v>
-      </c>
-      <c r="O16">
-        <v>0.09190589872040524</v>
-      </c>
-      <c r="P16">
-        <v>0.09190589872040524</v>
-      </c>
-      <c r="Q16">
-        <v>16.33331893605118</v>
-      </c>
-      <c r="R16">
-        <v>16.33331893605118</v>
-      </c>
-      <c r="S16">
-        <v>0.006428716272682703</v>
-      </c>
-      <c r="T16">
-        <v>0.006428716272682703</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.806672333333333</v>
+      </c>
+      <c r="H21">
+        <v>5.420017</v>
+      </c>
+      <c r="I21">
+        <v>0.08011724219933972</v>
+      </c>
+      <c r="J21">
+        <v>0.0801172421993397</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>11.94279566666667</v>
+      </c>
+      <c r="N21">
+        <v>35.828387</v>
+      </c>
+      <c r="O21">
+        <v>0.09909869482526162</v>
+      </c>
+      <c r="P21">
+        <v>0.09909869482526162</v>
+      </c>
+      <c r="Q21">
+        <v>21.57671851361989</v>
+      </c>
+      <c r="R21">
+        <v>194.190466622579</v>
+      </c>
+      <c r="S21">
+        <v>0.007939514134953939</v>
+      </c>
+      <c r="T21">
+        <v>0.007939514134953937</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.005337333333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.016012</v>
+      </c>
+      <c r="I22">
+        <v>0.0002366851030348848</v>
+      </c>
+      <c r="J22">
+        <v>0.0002366851030348848</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.119550333333333</v>
+      </c>
+      <c r="N22">
+        <v>6.358651</v>
+      </c>
+      <c r="O22">
+        <v>0.01758756303903228</v>
+      </c>
+      <c r="P22">
+        <v>0.01758756303903228</v>
+      </c>
+      <c r="Q22">
+        <v>0.01131274664577778</v>
+      </c>
+      <c r="R22">
+        <v>0.101814719812</v>
+      </c>
+      <c r="S22">
+        <v>4.162714170025887E-06</v>
+      </c>
+      <c r="T22">
+        <v>4.162714170025887E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.005337333333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.016012</v>
+      </c>
+      <c r="I23">
+        <v>0.0002366851030348848</v>
+      </c>
+      <c r="J23">
+        <v>0.0002366851030348848</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>22.818859</v>
+      </c>
+      <c r="N23">
+        <v>68.456577</v>
+      </c>
+      <c r="O23">
+        <v>0.1893458790903711</v>
+      </c>
+      <c r="P23">
+        <v>0.1893458790903711</v>
+      </c>
+      <c r="Q23">
+        <v>0.1217918567693333</v>
+      </c>
+      <c r="R23">
+        <v>1.096126710924</v>
+      </c>
+      <c r="S23">
+        <v>4.481534890173533E-05</v>
+      </c>
+      <c r="T23">
+        <v>4.481534890173533E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.005337333333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.016012</v>
+      </c>
+      <c r="I24">
+        <v>0.0002366851030348848</v>
+      </c>
+      <c r="J24">
+        <v>0.0002366851030348848</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>33.691532</v>
+      </c>
+      <c r="N24">
+        <v>101.074596</v>
+      </c>
+      <c r="O24">
+        <v>0.2795649311142757</v>
+      </c>
+      <c r="P24">
+        <v>0.2795649311142757</v>
+      </c>
+      <c r="Q24">
+        <v>0.1798229367946667</v>
+      </c>
+      <c r="R24">
+        <v>1.618406431152</v>
+      </c>
+      <c r="S24">
+        <v>6.616885452572281E-05</v>
+      </c>
+      <c r="T24">
+        <v>6.616885452572281E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.005337333333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.016012</v>
+      </c>
+      <c r="I25">
+        <v>0.0002366851030348848</v>
+      </c>
+      <c r="J25">
+        <v>0.0002366851030348848</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>49.94141999999999</v>
+      </c>
+      <c r="N25">
+        <v>149.82426</v>
+      </c>
+      <c r="O25">
+        <v>0.4144029319310593</v>
+      </c>
+      <c r="P25">
+        <v>0.4144029319310593</v>
+      </c>
+      <c r="Q25">
+        <v>0.2665540056799999</v>
+      </c>
+      <c r="R25">
+        <v>2.39898605112</v>
+      </c>
+      <c r="S25">
+        <v>9.808300064206114E-05</v>
+      </c>
+      <c r="T25">
+        <v>9.808300064206113E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.005337333333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.016012</v>
+      </c>
+      <c r="I26">
+        <v>0.0002366851030348848</v>
+      </c>
+      <c r="J26">
+        <v>0.0002366851030348848</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>11.94279566666667</v>
+      </c>
+      <c r="N26">
+        <v>35.828387</v>
+      </c>
+      <c r="O26">
+        <v>0.09909869482526162</v>
+      </c>
+      <c r="P26">
+        <v>0.09909869482526162</v>
+      </c>
+      <c r="Q26">
+        <v>0.06374268140488888</v>
+      </c>
+      <c r="R26">
+        <v>0.573684132644</v>
+      </c>
+      <c r="S26">
+        <v>2.345518479533966E-05</v>
+      </c>
+      <c r="T26">
+        <v>2.345518479533965E-05</v>
       </c>
     </row>
   </sheetData>
